--- a/inst/Data_Analysis_Modules/Module1_Info.xlsx
+++ b/inst/Data_Analysis_Modules/Module1_Info.xlsx
@@ -48,10 +48,10 @@
     <t>Data Analysis</t>
   </si>
   <si>
-    <t>openintro</t>
+    <t>cars</t>
   </si>
   <si>
-    <t>cars</t>
+    <t>openintro, plotrix</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:O137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="59.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -507,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
